--- a/biology/Zoologie/Centruroides/Centruroides.xlsx
+++ b/biology/Zoologie/Centruroides/Centruroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centruroides est un genre de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le Sud de l'Amérique du Nord, aux Antilles, en Amérique centrale et dans le Nord de Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le Sud de l'Amérique du Nord, aux Antilles, en Amérique centrale et dans le Nord de Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les peignes sont de 26 à 36 pour un mâle et de 24 à 30 pour une femelle.
 La gestation dure de cinq à six mois et donne naissance de 20 à 40 pullus.
@@ -576,9 +592,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Scorpion Files (20/02/2024)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Scorpion Files (20/02/2024) :
 Centruroides alayoni Armas, 1999
 Centruroides altagraciae Teruel, Armas &amp; Kovařík, 2015
 Centruroides anchorellus Armas, 1976
@@ -710,7 +728,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Marx en 1890 dans les Buthidae.
 </t>
@@ -741,7 +761,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Marx, 1890 : « Scientific results of explorations by the U.S. Fish Commission Steamer Albatross L.O. Howard, V. Annotated catalogue of the Insects collected in 1887-88. Arachnida. » Proceedings of the United States National Museum, vol. 12, no 1, p. 207-211 (texte intégral).</t>
         </is>
